--- a/info/database.xlsx
+++ b/info/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\APP\phukiendhqg\info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APP\ecommerce\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6926AE-4951-4976-9CF6-B013FA0AA18A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8263D427-D5F4-4E13-BE8F-7BAC38A5181C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="20460" windowHeight="10890" activeTab="1" xr2:uid="{D3C4337D-7486-44C5-B7D5-5B2F05425FF7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{D3C4337D-7486-44C5-B7D5-5B2F05425FF7}"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
@@ -58,12 +58,6 @@
     <t>price</t>
   </si>
   <si>
-    <t>promotion_percent</t>
-  </si>
-  <si>
-    <t>promotion_direct</t>
-  </si>
-  <si>
     <t>prod_name</t>
   </si>
   <si>
@@ -518,6 +512,12 @@
   </si>
   <si>
     <t>/phu-kien-dien-thoai</t>
+  </si>
+  <si>
+    <t>discount_percent</t>
+  </si>
+  <si>
+    <t>discount_direct</t>
   </si>
 </sst>
 </file>
@@ -925,67 +925,67 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
     <col min="3" max="18" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="P4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q4" t="s">
         <v>98</v>
       </c>
-      <c r="E3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J3" t="s">
-        <v>98</v>
-      </c>
-      <c r="L3" t="s">
-        <v>98</v>
-      </c>
-      <c r="O3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -994,169 +994,169 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L5" t="s">
         <v>4</v>
       </c>
       <c r="M5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>97</v>
+      </c>
+      <c r="R5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>93</v>
       </c>
-      <c r="N5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O5" t="s">
-        <v>86</v>
-      </c>
-      <c r="P5" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>99</v>
-      </c>
-      <c r="R5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6" t="s">
+        <v>143</v>
+      </c>
+      <c r="L6" t="s">
+        <v>142</v>
+      </c>
+      <c r="M6" t="s">
+        <v>142</v>
+      </c>
+      <c r="N6" t="s">
+        <v>142</v>
+      </c>
+      <c r="O6" t="s">
+        <v>142</v>
+      </c>
+      <c r="P6" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>145</v>
+      </c>
+      <c r="R6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s">
         <v>95</v>
       </c>
-      <c r="B6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" t="s">
-        <v>146</v>
-      </c>
-      <c r="F6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I6" t="s">
-        <v>142</v>
-      </c>
-      <c r="J6" t="s">
-        <v>145</v>
-      </c>
-      <c r="K6" t="s">
-        <v>145</v>
-      </c>
-      <c r="L6" t="s">
-        <v>144</v>
-      </c>
-      <c r="M6" t="s">
-        <v>144</v>
-      </c>
-      <c r="N6" t="s">
-        <v>144</v>
-      </c>
-      <c r="O6" t="s">
-        <v>144</v>
-      </c>
-      <c r="P6" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>147</v>
-      </c>
-      <c r="R6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>96</v>
       </c>
-      <c r="E7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" t="s">
-        <v>98</v>
-      </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1165,55 +1165,55 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>109</v>
-      </c>
       <c r="C17" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1228,158 +1228,158 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8582C00-5C13-4B24-9C47-2B38DF1D82E8}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>4</v>
       </c>
       <c r="B12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" t="s">
         <v>157</v>
-      </c>
-      <c r="C12" t="s">
-        <v>159</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1395,44 +1395,44 @@
       <selection activeCell="A3" sqref="A3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="6" width="13.5703125" customWidth="1"/>
+    <col min="2" max="6" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>129</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>130</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>131</v>
       </c>
-      <c r="E4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1448,66 +1448,66 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" t="s">
         <v>140</v>
       </c>
-      <c r="E4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>141</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" t="s">
         <v>142</v>
-      </c>
-      <c r="E5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1521,135 +1521,135 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1">
         <v>2204</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>125</v>
@@ -1659,53 +1659,53 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <f>SUM(C3:C16)</f>
@@ -1722,37 +1722,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476854EF-0CA2-4635-AEDB-24147C02ADB3}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="42.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="42.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -1761,73 +1761,73 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="H2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="4">
         <v>5</v>
@@ -1836,24 +1836,24 @@
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -1862,24 +1862,24 @@
         <v>2</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="4">
         <v>5</v>
@@ -1888,24 +1888,24 @@
         <v>3</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
@@ -1914,24 +1914,24 @@
         <v>4</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" s="4">
         <v>5</v>
@@ -1940,24 +1940,24 @@
         <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="4">
         <v>10</v>
@@ -1966,24 +1966,24 @@
         <v>6</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="4">
         <v>5</v>
@@ -1992,24 +1992,24 @@
         <v>7</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
@@ -2018,24 +2018,24 @@
         <v>8</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
@@ -2044,24 +2044,24 @@
         <v>9</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -2070,10 +2070,10 @@
         <v>10</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J16">
         <v>1</v>
